--- a/source/func/twitterDB.xlsx
+++ b/source/func/twitterDB.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>solt</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>follower[,,,]</t>
     <phoneticPr fontId="1"/>
@@ -50,33 +46,6 @@
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Img[四つまで]</t>
-    <rPh sb="4" eb="5">
-      <t>ヨッ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>retweet[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fab[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>parentID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>retweet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flg(bool)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -99,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Img[４つまで]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>userID(主キー)</t>
     <rPh sb="7" eb="8">
       <t>シュ</t>
@@ -159,6 +124,41 @@
   </si>
   <si>
     <t>notifyDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retweetUser[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fabUser[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parentTweetID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>originTweetID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img[４つまで]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img[四つまで]</t>
+    <rPh sb="4" eb="5">
+      <t>ヨッ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,14 +219,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,147 +541,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -658,28 +690,20 @@
         <v>4</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="28">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B8:C8"/>
@@ -689,17 +713,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
